--- a/Descargas/R15_Juzgado De Familia De Pudahuel_Ingresos Causas Por Rol_2020-Diciembre.xlsx
+++ b/Descargas/R15_Juzgado De Familia De Pudahuel_Ingresos Causas Por Rol_2020-Diciembre.xlsx
@@ -227,31 +227,31 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t xml:space="preserve">Contenciosa</t>
+          <t xml:space="preserve">Adopción</t>
         </is>
       </c>
       <c r="B3" s="65">
-        <v>440</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Cumplimiento</t>
+          <t xml:space="preserve">Contenciosa</t>
         </is>
       </c>
       <c r="B4" s="65">
-        <v>328</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">Identidad De Genero</t>
+          <t xml:space="preserve">Cumplimiento</t>
         </is>
       </c>
       <c r="B5" s="65">
-        <v>1</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6">
@@ -261,7 +261,7 @@
         </is>
       </c>
       <c r="B6" s="65">
-        <v>209</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         </is>
       </c>
       <c r="B7" s="65">
-        <v>215</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8">
@@ -281,7 +281,7 @@
         </is>
       </c>
       <c r="B8" s="65">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -291,7 +291,7 @@
         </is>
       </c>
       <c r="B9" s="65">
-        <v>343</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10">
@@ -301,7 +301,7 @@
         </is>
       </c>
       <c r="B10" s="65">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
